--- a/99_MathData/MathData.xlsx
+++ b/99_MathData/MathData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ws1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="いんし" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>a3</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -202,6 +198,98 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <rPh sb="0" eb="2">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題概略</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連すること</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SL2(Z)の有限部分群の分類</t>
+    <rPh sb="7" eb="9">
+      <t>ユウゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群の共役類、標準形、Lie群と行列群</t>
+    <rPh sb="0" eb="1">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジュンケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>グン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題から、やるべきことを取り出す！！</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -210,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +313,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,14 +352,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,12 +395,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -573,74 +710,74 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -648,22 +785,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -678,22 +815,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" style="2" customWidth="1"/>
+    <col min="2" max="3" width="12.125" style="2"/>
+    <col min="4" max="4" width="31.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="12.125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
